--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_43.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2128851540616246</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'D#:maj', 'D#:7', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_14</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.147562582345191</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A:7/3', 'D']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(67.38, 79.44)]</t>
+          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(16.329446, 21.658426)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:17.160000', '0:00:20.680000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:06.930000', '0:01:14.440000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2287581699346405</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.06, 17.506)]</t>
+          <t>[['F', 'Bb', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(83.84, 97.22)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:06.415079', '0:00:16.608639')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1285714285714286</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'D/3', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2528735632183908</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'B:min']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.141, 14.901)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(3.117845, 9.979342)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:20.560000', '0:00:48.700000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:12.320000', '0:00:19.900000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1691176470588235</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>isophonics_34</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_248</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08260869565217391</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>[['Bb', 'Eb/5', 'Ab']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(11.384, 18.318)]</t>
+          <t>[['F#/4', 'B', 'E/5']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:33.181700', '0:01:37.709591')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:02:07.431000', '0:02:12.656000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1187888198757764</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2598235765838011</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min/5', 'C:min']]</t>
+          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.36, 4.74)]</t>
+          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(17.357, 22.981)]</t>
+          <t>[('0:01:51', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:02:44.360000', '0:03:26.120000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08786078098471986</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(75.355124, 80.742154)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(19.731723, 23.783605)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:04.300000', '0:01:07.900000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1201923076923077</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(33.698526, 40.885102)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(38.041, 42.375)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(138.8, 144.46)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.344657, 11.337709)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1206140350877193</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(21.577709, 29.878843)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(17.374897, 24.108684)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_8</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2848837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(32.52, 47.4)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(60.76, 66.82)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:07.640000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_74</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07936507936507936</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab', 'Ab:7']]</t>
-        </is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4060150375939849</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb', 'Eb:7']]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db', 'Ab', 'Db/5']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(14.4, 17.48)]</t>
+          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(4.83, 8.1)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:04:21.828000', '0:04:49.808000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:26.397823', '0:01:49.977687')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09326923076923077</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'D:min7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(62.27, 67.88)]</t>
+          <t>[['D/3', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(72.24, 80.18)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06459627329192547</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Eb:maj6', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Ab:maj6', 'Ab:7', 'Db']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(22.73, 28.48)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(89.123, 93.41)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06782744282744282</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A/3']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.43, 14.59)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4211538461538462</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.75</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(17.18, 48.16)]</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_48</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(3.9, 16.08)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(55.84, 65.04)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
